--- a/BackTest/2019-10-29 BackTest PAY.xlsx
+++ b/BackTest/2019-10-29 BackTest PAY.xlsx
@@ -5386,13 +5386,17 @@
         <v>92.83000000000004</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="K143" t="n">
+        <v>91.8</v>
+      </c>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
@@ -5427,8 +5431,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5462,8 +5472,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5497,8 +5513,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5532,8 +5554,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5567,8 +5595,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5636,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5637,8 +5677,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5672,8 +5718,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5707,8 +5759,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5742,8 +5800,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5777,8 +5841,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5812,8 +5882,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5847,8 +5923,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5879,11 +5961,17 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5914,11 +6002,17 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5952,8 +6046,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5987,8 +6087,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6022,8 +6128,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6057,8 +6169,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6092,8 +6210,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6127,8 +6251,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6162,8 +6292,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6197,8 +6333,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +6374,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6267,8 +6415,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6299,11 +6453,17 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6334,11 +6494,17 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6369,11 +6535,17 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6404,11 +6576,17 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6439,11 +6617,17 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6474,11 +6658,17 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6509,11 +6699,17 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6544,11 +6740,17 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6579,11 +6781,17 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6614,11 +6822,17 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6649,11 +6863,17 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6684,11 +6904,17 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6719,11 +6945,17 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +6986,17 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6792,8 +7030,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6824,11 +7068,17 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6859,11 +7109,17 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6894,11 +7150,17 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6929,11 +7191,17 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6964,11 +7232,17 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -6999,11 +7273,17 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7034,11 +7314,17 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7069,11 +7355,17 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7104,11 +7396,17 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7139,11 +7437,17 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7174,11 +7478,17 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7209,11 +7519,17 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7244,11 +7560,17 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7279,11 +7601,17 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7317,8 +7645,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7352,8 +7686,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +7727,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7422,8 +7768,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7457,8 +7809,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7492,8 +7850,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7527,8 +7891,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7562,8 +7932,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7597,8 +7973,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7632,8 +8014,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7667,8 +8055,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7702,8 +8096,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7737,8 +8137,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7772,8 +8178,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7807,8 +8219,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7842,8 +8260,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7877,8 +8301,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8342,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7947,8 +8383,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7982,8 +8424,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8017,8 +8465,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8052,8 +8506,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8087,8 +8547,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8122,8 +8588,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8157,8 +8629,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8192,8 +8670,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8227,8 +8711,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8262,8 +8752,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8297,8 +8793,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8332,8 +8834,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8367,8 +8875,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8402,8 +8916,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8434,13 +8954,19 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M230" t="n">
-        <v>1</v>
+        <v>1.059270152505447</v>
       </c>
     </row>
     <row r="231">
@@ -8469,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
@@ -8504,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
@@ -8539,7 +9065,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
@@ -8574,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
@@ -8609,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
@@ -8819,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
@@ -10146,13 +10672,17 @@
         <v>93.77500000000002</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="K279" t="n">
+        <v>92.3</v>
+      </c>
       <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
@@ -10181,14 +10711,22 @@
         <v>93.60500000000002</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="K280" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10216,14 +10754,22 @@
         <v>93.41500000000002</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="K281" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10251,14 +10797,22 @@
         <v>93.27500000000002</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="K282" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10286,14 +10840,22 @@
         <v>93.16000000000003</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="K283" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10321,14 +10883,22 @@
         <v>93.13000000000002</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="K284" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10356,14 +10926,22 @@
         <v>93.05500000000004</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="K285" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10391,14 +10969,22 @@
         <v>93.10000000000004</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="K286" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10432,8 +11018,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10467,8 +11059,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10502,8 +11100,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10537,8 +11141,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10572,8 +11182,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10607,8 +11223,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10642,8 +11264,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10677,8 +11305,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10712,8 +11346,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10747,8 +11387,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10782,8 +11428,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10817,8 +11469,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10852,8 +11510,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10887,8 +11551,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -10922,8 +11592,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -10957,8 +11633,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -10992,8 +11674,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11027,8 +11715,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11062,8 +11756,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11097,8 +11797,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11132,8 +11838,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11167,8 +11879,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11202,8 +11920,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11237,8 +11961,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11272,8 +12002,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11307,8 +12043,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11342,8 +12084,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +12125,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11412,8 +12166,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11447,8 +12207,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11482,8 +12248,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11517,8 +12289,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11552,8 +12330,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11587,8 +12371,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11622,8 +12412,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11657,8 +12453,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -11692,8 +12494,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -11727,8 +12535,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -11762,8 +12576,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -11797,8 +12617,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -11832,8 +12658,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -11867,8 +12699,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -11902,8 +12740,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -11937,8 +12781,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -11972,8 +12822,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12007,8 +12863,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12042,8 +12904,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12077,8 +12945,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12112,8 +12986,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12147,8 +13027,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12182,8 +13068,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12217,8 +13109,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12252,8 +13150,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12287,8 +13191,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12322,8 +13232,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>92.3</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12351,18 +13267,20 @@
         <v>91.51000000000002</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>90.09999999999999</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>90.09999999999999</v>
-      </c>
-      <c r="L342" t="inlineStr"/>
+        <v>92.3</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12390,20 +13308,18 @@
         <v>91.33500000000001</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>89.7</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M343" t="n">
@@ -12433,16 +13349,14 @@
         <v>91.15500000000002</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>89.7</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -12476,16 +13390,14 @@
         <v>91.05000000000001</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>90.09999999999999</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -12519,16 +13431,14 @@
         <v>90.91000000000001</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>89.5</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -12562,16 +13472,14 @@
         <v>90.78000000000002</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>89.5</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -12605,16 +13513,14 @@
         <v>90.65000000000002</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>89.40000000000001</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -12648,16 +13554,14 @@
         <v>90.55500000000004</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>89.40000000000001</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -12691,16 +13595,14 @@
         <v>90.47000000000003</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>89.5</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -12734,16 +13636,14 @@
         <v>90.37500000000003</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>89.5</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -12777,16 +13677,14 @@
         <v>90.24000000000002</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>89.5</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -12820,16 +13718,14 @@
         <v>90.16000000000003</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>89.5</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -12863,16 +13759,14 @@
         <v>90.16500000000002</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>91.3</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -12906,16 +13800,14 @@
         <v>90.16000000000003</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>90.90000000000001</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -12949,16 +13841,14 @@
         <v>90.08500000000002</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>89.8</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -12992,16 +13882,14 @@
         <v>90.04500000000002</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>90.59999999999999</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -13035,16 +13923,14 @@
         <v>90.00000000000003</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>90.40000000000001</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -13078,16 +13964,14 @@
         <v>89.94500000000002</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
-      <c r="J359" t="n">
-        <v>90.2</v>
-      </c>
+      <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -13121,16 +14005,14 @@
         <v>89.95000000000003</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
       </c>
-      <c r="J360" t="n">
-        <v>90.2</v>
-      </c>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -13164,16 +14046,14 @@
         <v>89.96500000000003</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
       </c>
-      <c r="J361" t="n">
-        <v>90.5</v>
-      </c>
+      <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -13207,16 +14087,14 @@
         <v>90.05500000000004</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
       </c>
-      <c r="J362" t="n">
-        <v>91.90000000000001</v>
-      </c>
+      <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -13250,16 +14128,14 @@
         <v>90.12000000000003</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
       </c>
-      <c r="J363" t="n">
-        <v>91</v>
-      </c>
+      <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -13293,16 +14169,14 @@
         <v>90.14500000000004</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
       </c>
-      <c r="J364" t="n">
-        <v>90.2</v>
-      </c>
+      <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -13336,16 +14210,14 @@
         <v>90.15500000000004</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
       </c>
-      <c r="J365" t="n">
-        <v>90.3</v>
-      </c>
+      <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -13379,16 +14251,14 @@
         <v>90.19500000000004</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
       </c>
-      <c r="J366" t="n">
-        <v>90.3</v>
-      </c>
+      <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -13422,16 +14292,14 @@
         <v>90.25500000000004</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
       </c>
-      <c r="J367" t="n">
-        <v>90.7</v>
-      </c>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -13465,16 +14333,14 @@
         <v>90.29500000000004</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
       </c>
-      <c r="J368" t="n">
-        <v>90.2</v>
-      </c>
+      <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -13508,16 +14374,14 @@
         <v>90.33500000000004</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
       </c>
-      <c r="J369" t="n">
-        <v>90.2</v>
-      </c>
+      <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -13551,16 +14415,14 @@
         <v>90.37000000000003</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
       </c>
-      <c r="J370" t="n">
-        <v>90.2</v>
-      </c>
+      <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -13594,16 +14456,14 @@
         <v>90.46000000000004</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>91.3</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -13637,16 +14497,14 @@
         <v>90.50000000000003</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>90.3</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -13680,16 +14538,14 @@
         <v>90.55500000000004</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>90.59999999999999</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -13723,16 +14579,14 @@
         <v>90.53500000000004</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="n">
-        <v>90.90000000000001</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -13766,16 +14620,14 @@
         <v>90.53500000000004</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
       </c>
-      <c r="J375" t="n">
-        <v>90.90000000000001</v>
-      </c>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -13809,16 +14661,14 @@
         <v>90.64000000000004</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
       </c>
-      <c r="J376" t="n">
-        <v>91.90000000000001</v>
-      </c>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -13852,16 +14702,14 @@
         <v>90.69500000000005</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
       </c>
-      <c r="J377" t="n">
-        <v>91.7</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -13895,16 +14743,14 @@
         <v>90.77500000000005</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
-      <c r="J378" t="n">
-        <v>92</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -13938,16 +14784,14 @@
         <v>90.89500000000004</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>92.59999999999999</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -13981,16 +14825,14 @@
         <v>90.93000000000004</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>90.90000000000001</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -14024,16 +14866,14 @@
         <v>91.03500000000004</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>92.59999999999999</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -14067,16 +14907,14 @@
         <v>91.07000000000002</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>92.59999999999999</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -14110,16 +14948,14 @@
         <v>91.15000000000002</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>92.59999999999999</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -14153,16 +14989,14 @@
         <v>91.27500000000002</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
       </c>
-      <c r="J384" t="n">
-        <v>92.7</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -14196,16 +15030,14 @@
         <v>91.39000000000001</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>92.59999999999999</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -14246,7 +15078,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -14287,7 +15119,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -14328,7 +15160,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -14362,16 +15194,14 @@
         <v>91.64500000000001</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>92</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -14405,16 +15235,14 @@
         <v>91.76500000000001</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>92.59999999999999</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -14448,16 +15276,14 @@
         <v>91.83000000000001</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>92.59999999999999</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -14498,7 +15324,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -14539,7 +15365,7 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -14580,7 +15406,7 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -14621,7 +15447,7 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -14662,7 +15488,7 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -14703,7 +15529,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -14744,7 +15570,7 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -14785,7 +15611,7 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -14826,7 +15652,7 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -14867,7 +15693,7 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -14908,7 +15734,7 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -14949,7 +15775,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
@@ -14990,7 +15816,7 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -15031,7 +15857,7 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -15072,7 +15898,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -15113,7 +15939,7 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L407" t="inlineStr">
         <is>
@@ -15154,7 +15980,7 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L408" t="inlineStr">
         <is>
@@ -15195,7 +16021,7 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
@@ -15236,7 +16062,7 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
@@ -15277,7 +16103,7 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L411" t="inlineStr">
         <is>
@@ -15318,7 +16144,7 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
@@ -15359,7 +16185,7 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
@@ -15400,7 +16226,7 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
@@ -15441,7 +16267,7 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -15475,16 +16301,14 @@
         <v>92.19500000000004</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>91.59999999999999</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -15518,16 +16342,14 @@
         <v>92.13500000000003</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>91.7</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -15561,16 +16383,14 @@
         <v>92.07500000000003</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>91.7</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="n">
-        <v>90.09999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>

--- a/BackTest/2019-10-29 BackTest PAY.xlsx
+++ b/BackTest/2019-10-29 BackTest PAY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>842914.0223457421</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>1026024.654442072</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>109</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,15 @@
         <v>1244308.072314002</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +564,11 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +601,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +634,15 @@
         <v>953424.729514002</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +675,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +712,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +745,15 @@
         <v>937617.0283223352</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +782,15 @@
         <v>1126675.216422335</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +819,15 @@
         <v>1126675.216422335</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +856,15 @@
         <v>1126675.216422335</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +893,15 @@
         <v>1088123.580422335</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +930,15 @@
         <v>920047.2653223353</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +971,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1008,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1045,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1082,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1119,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1156,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1193,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1230,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1267,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1304,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1341,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1378,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1415,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1452,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,14 +1485,16 @@
         <v>857349.0228654726</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1573,7 +1685,7 @@
         <v>850442.1956654727</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1718,7 @@
         <v>850442.1956654727</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1751,7 @@
         <v>842489.7204654727</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1784,7 @@
         <v>848714.3043654726</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1817,7 @@
         <v>812199.8601654726</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1850,7 @@
         <v>812199.8601654726</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1883,7 @@
         <v>812199.8601654726</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1916,7 @@
         <v>812199.8601654726</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1949,7 @@
         <v>804499.2568654726</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1982,7 @@
         <v>804499.2568654726</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2015,7 @@
         <v>812415.8005654727</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2048,7 @@
         <v>812415.8005654727</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2081,7 @@
         <v>812415.8005654727</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2114,7 @@
         <v>812415.8005654727</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2147,7 @@
         <v>812415.8005654727</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2180,7 @@
         <v>843217.8005654727</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2213,7 @@
         <v>843162.8005654727</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2246,7 @@
         <v>843172.8005654727</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2279,7 @@
         <v>843150.8005654727</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2312,7 @@
         <v>837238.7148654726</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2345,7 @@
         <v>837238.7148654726</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2378,7 @@
         <v>837238.7148654726</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2411,7 @@
         <v>837238.7148654726</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2444,7 @@
         <v>837238.7148654726</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2477,7 @@
         <v>837238.7148654726</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2510,7 @@
         <v>837238.7148654726</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2543,7 @@
         <v>818104.7271654726</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2576,7 @@
         <v>747597.3956654726</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2609,7 @@
         <v>661694.9808654726</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2642,7 @@
         <v>627776.2564654726</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2675,7 @@
         <v>628186.2564654726</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2708,7 @@
         <v>621473.8986654726</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2741,7 @@
         <v>603416.9912654726</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2774,7 @@
         <v>634440.9912654726</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2807,7 @@
         <v>634440.9912654726</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2840,7 @@
         <v>629440.9912654726</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2873,7 @@
         <v>629440.9912654726</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2906,7 @@
         <v>633812.8139654726</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2939,7 @@
         <v>633812.8139654726</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2972,7 @@
         <v>633812.8139654726</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +3005,7 @@
         <v>633812.8139654726</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3038,7 @@
         <v>633812.8139654726</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3071,7 @@
         <v>633812.8139654726</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3104,7 @@
         <v>633812.8139654726</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3137,7 @@
         <v>609350.6260654726</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3170,7 @@
         <v>609350.6260654726</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3203,7 @@
         <v>619632.6002654727</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3236,7 @@
         <v>619632.6002654727</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3269,7 @@
         <v>619632.6002654727</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3302,7 @@
         <v>619632.6002654727</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3335,7 @@
         <v>619632.6002654727</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3368,7 @@
         <v>619632.6002654727</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3401,7 @@
         <v>643024.9302654726</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3434,7 @@
         <v>643024.9302654726</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3467,7 @@
         <v>642624.9302654726</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3500,7 @@
         <v>642624.9302654726</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3533,7 @@
         <v>641379.1325654726</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3566,7 @@
         <v>641398.1325654726</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3599,7 @@
         <v>641398.1325654726</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3632,7 @@
         <v>641398.1325654726</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3665,7 @@
         <v>641084.6951280351</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3698,7 @@
         <v>641484.6951280351</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3731,7 @@
         <v>640284.6951280351</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3764,7 @@
         <v>703139.4397280351</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3797,7 @@
         <v>701939.4397280351</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3830,7 @@
         <v>701939.4397280351</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3863,7 @@
         <v>740912.1261280351</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3896,7 @@
         <v>733008.0163280352</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3949,7 +4061,7 @@
         <v>751237.1530280352</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +4094,7 @@
         <v>772721.2008280351</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4127,7 @@
         <v>772721.2008280351</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4160,7 @@
         <v>772721.2008280351</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4193,7 @@
         <v>747487.7662280351</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4226,7 @@
         <v>737810.4566280351</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4259,7 @@
         <v>735192.775028035</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4292,7 @@
         <v>741499.775028035</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4325,7 @@
         <v>748248.9664280351</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4358,7 @@
         <v>747992.9664280351</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4391,7 @@
         <v>748003.9664280351</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4424,7 @@
         <v>748025.9664280351</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4457,7 @@
         <v>743527.7187280351</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4490,7 @@
         <v>743350.7187280351</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4523,7 @@
         <v>664237.3046280351</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4556,7 @@
         <v>673113.3392280351</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4589,7 @@
         <v>673113.3392280351</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4622,7 @@
         <v>670071.5706280351</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4655,7 @@
         <v>670071.5706280351</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4688,7 @@
         <v>665743.1295280351</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4721,7 @@
         <v>664953.673128035</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4754,7 @@
         <v>668952.887928035</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4807,7 +4919,7 @@
         <v>641648.3436280349</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4952,7 @@
         <v>651253.464228035</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5566,7 +5678,7 @@
         <v>674495.6967004075</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5711,7 @@
         <v>723944.0034004075</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5830,7 +5942,7 @@
         <v>747955.2089004074</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5975,7 @@
         <v>798303.1084992014</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +6008,7 @@
         <v>798291.1084992014</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +6041,7 @@
         <v>793452.1084992014</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +6074,7 @@
         <v>788746.3916853041</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +6107,7 @@
         <v>784669.1411853041</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6985,17 +7097,11 @@
         <v>725955.8815769887</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7024,17 +7130,11 @@
         <v>725955.8815769887</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>91.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7067,11 +7167,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7104,11 +7200,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7141,11 +7233,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7178,11 +7266,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7215,11 +7299,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7252,11 +7332,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7289,11 +7365,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7326,11 +7398,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7363,11 +7431,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7400,11 +7464,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7437,11 +7497,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7474,11 +7530,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7511,11 +7563,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7548,11 +7596,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7585,11 +7629,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7622,11 +7662,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7659,11 +7695,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7696,11 +7728,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7733,11 +7761,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7770,11 +7794,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7807,11 +7827,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7844,11 +7860,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7881,11 +7893,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7918,11 +7926,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7955,11 +7959,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7992,11 +7992,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8029,11 +8025,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8066,11 +8058,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8103,11 +8091,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8124,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8177,11 +8157,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8214,11 +8190,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8251,11 +8223,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8288,11 +8256,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8325,11 +8289,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8362,11 +8322,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8399,11 +8355,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8436,11 +8388,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8473,11 +8421,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8510,11 +8454,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8547,11 +8487,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8584,11 +8520,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8621,11 +8553,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8654,16 +8582,14 @@
         <v>711090.1427580069</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
       <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
@@ -8689,7 +8615,7 @@
         <v>708522.6198580069</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9085,7 +9011,7 @@
         <v>583612.5425580071</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9316,17 +9242,11 @@
         <v>583817.2123580071</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9359,11 +9279,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9392,15 +9308,11 @@
         <v>583916.2123580071</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9429,15 +9341,11 @@
         <v>568701.771458007</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9466,15 +9374,11 @@
         <v>552666.913658007</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9503,15 +9407,11 @@
         <v>552666.913658007</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9540,15 +9440,11 @@
         <v>552666.913658007</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9577,15 +9473,11 @@
         <v>552566.913658007</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9618,11 +9510,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9655,11 +9543,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9688,15 +9572,11 @@
         <v>553326.731258007</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9729,11 +9609,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9762,17 +9638,11 @@
         <v>550603.174458007</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>95.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9801,16 +9671,14 @@
         <v>550553.174458007</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
       <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
@@ -9836,7 +9704,7 @@
         <v>541863.6368580069</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9902,14 +9770,10 @@
         <v>540329.807758007</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J281" t="n">
-        <v>93.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
@@ -9939,19 +9803,11 @@
         <v>540329.807758007</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="n">
-        <v>94</v>
-      </c>
-      <c r="J282" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9980,19 +9836,11 @@
         <v>540329.807758007</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>94</v>
-      </c>
-      <c r="J283" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10021,14 +9869,10 @@
         <v>579482.6744582159</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>94</v>
-      </c>
-      <c r="J284" t="n">
-        <v>94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
@@ -10058,19 +9902,11 @@
         <v>623664.917058007</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="n">
-        <v>96</v>
-      </c>
-      <c r="J285" t="n">
-        <v>94</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10099,17 +9935,11 @@
         <v>625120.917058007</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>94</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10138,7 +9968,7 @@
         <v>625120.917058007</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10171,7 +10001,7 @@
         <v>624966.917058007</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10204,7 +10034,7 @@
         <v>623225.038958007</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10237,7 +10067,7 @@
         <v>623789.038958007</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10270,7 +10100,7 @@
         <v>673251.892358007</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10303,7 +10133,7 @@
         <v>673251.892358007</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10336,7 +10166,7 @@
         <v>672741.3193580071</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10369,7 +10199,7 @@
         <v>671796.5693580071</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10402,7 +10232,7 @@
         <v>671807.5693580071</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10435,7 +10265,7 @@
         <v>668947.5736580071</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10468,7 +10298,7 @@
         <v>668947.5736580071</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10501,7 +10331,7 @@
         <v>669102.5736580071</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10534,7 +10364,7 @@
         <v>667491.5736580071</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10567,14 +10397,10 @@
         <v>667445.5736580071</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="J300" t="n">
-        <v>96.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
@@ -10604,19 +10430,11 @@
         <v>665834.5736580071</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>96.2</v>
-      </c>
-      <c r="J301" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10645,17 +10463,11 @@
         <v>665834.5736580071</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10684,17 +10496,11 @@
         <v>651071.1879580071</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10726,14 +10532,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10765,14 +10565,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10801,17 +10595,11 @@
         <v>682365.8286580071</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10840,17 +10628,11 @@
         <v>682420.8286580071</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10879,19 +10661,11 @@
         <v>684946.8765580071</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="J308" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10920,17 +10694,11 @@
         <v>679321.7071580071</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10959,17 +10727,11 @@
         <v>661668.0831580071</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10998,19 +10760,11 @@
         <v>661668.0831580071</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
-        <v>94.3</v>
-      </c>
-      <c r="J311" t="n">
-        <v>96.5</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11039,15 +10793,15 @@
         <v>674456.0831580071</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>96.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L312" t="n">
@@ -11081,9 +10835,7 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>96.5</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11120,9 +10872,7 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>96.5</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11159,9 +10909,7 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>96.5</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11198,9 +10946,7 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>96.5</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11234,19 +10980,17 @@
         <v>669079.7412580071</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>96.5</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L317" t="n">
-        <v>0.9804922279792746</v>
+        <v>1</v>
       </c>
       <c r="M317" t="inlineStr"/>
     </row>
@@ -11277,7 +11021,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11310,7 +11058,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11343,7 +11095,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11376,7 +11132,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11409,7 +11169,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11442,7 +11206,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11471,11 +11239,15 @@
         <v>747168.901258007</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11508,7 +11280,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11541,7 +11317,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11574,7 +11354,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11607,7 +11391,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11640,7 +11428,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11673,7 +11465,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11706,7 +11502,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11739,7 +11539,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11772,7 +11576,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11805,7 +11613,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11838,7 +11650,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11871,7 +11687,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11904,7 +11724,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11937,7 +11761,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11970,7 +11798,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12003,7 +11835,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12036,7 +11872,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12069,7 +11909,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12102,7 +11946,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12135,7 +11983,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12168,7 +12020,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12201,7 +12057,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12234,7 +12094,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12267,7 +12131,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12300,7 +12168,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12333,7 +12205,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12366,7 +12242,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12399,7 +12279,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12432,7 +12316,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12465,7 +12353,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12498,7 +12390,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12531,7 +12427,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12564,7 +12464,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12597,7 +12501,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12630,7 +12538,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12659,15 +12571,13 @@
         <v>450902.5579580071</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>93.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L360" t="n">
@@ -12809,11 +12719,9 @@
         <v>424145.0478580071</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>93.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -13773,7 +13681,7 @@
         <v>454049.6419580071</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>91.2</v>
@@ -13812,11 +13720,9 @@
         <v>453237.3318580071</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>92.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -14147,9 +14053,11 @@
         <v>338978.4409580071</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>90.09999999999999</v>
+      </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -14184,9 +14092,11 @@
         <v>338160.0243580071</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>90.2</v>
+      </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -14221,9 +14131,11 @@
         <v>324007.0780580071</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>90.09999999999999</v>
+      </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -14258,9 +14170,11 @@
         <v>351542.1712580071</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>89.7</v>
+      </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -14295,7 +14209,7 @@
         <v>348805.7322580071</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>90.09999999999999</v>
@@ -14334,7 +14248,7 @@
         <v>354674.9521580071</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I405" t="n">
         <v>89.40000000000001</v>
@@ -14373,7 +14287,7 @@
         <v>326337.4913580071</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I406" t="n">
         <v>89.5</v>
@@ -14412,7 +14326,7 @@
         <v>326337.4913580071</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I407" t="n">
         <v>89.40000000000001</v>
@@ -14451,7 +14365,7 @@
         <v>326337.4913580071</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I408" t="n">
         <v>89.40000000000001</v>
@@ -14490,7 +14404,7 @@
         <v>333847.0018580071</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I409" t="n">
         <v>89.40000000000001</v>
@@ -14529,7 +14443,7 @@
         <v>333847.0018580071</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I410" t="n">
         <v>89.5</v>
@@ -14568,7 +14482,7 @@
         <v>333847.0018580071</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I411" t="n">
         <v>89.5</v>
@@ -14607,7 +14521,7 @@
         <v>333847.0018580071</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I412" t="n">
         <v>89.5</v>
@@ -14646,7 +14560,7 @@
         <v>335023.4640580071</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I413" t="n">
         <v>89.5</v>
@@ -14685,7 +14599,7 @@
         <v>332623.4640580071</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>91.3</v>
@@ -14724,7 +14638,7 @@
         <v>301776.3901580071</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I415" t="n">
         <v>90.90000000000001</v>
@@ -14763,7 +14677,7 @@
         <v>301787.4901580071</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>89</v>
@@ -14802,7 +14716,7 @@
         <v>296287.4901580071</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>90.59999999999999</v>
@@ -14841,7 +14755,7 @@
         <v>294414.4073580071</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418" t="n">
         <v>90.40000000000001</v>
@@ -14880,7 +14794,7 @@
         <v>294414.4073580071</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>90.2</v>
@@ -14919,7 +14833,7 @@
         <v>305290.9796580071</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>90.2</v>
@@ -14958,7 +14872,7 @@
         <v>305290.9796580071</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>91.90000000000001</v>
@@ -14997,7 +14911,7 @@
         <v>302938.0384580071</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>91.90000000000001</v>
@@ -15036,7 +14950,7 @@
         <v>302925.6634580071</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>91</v>
@@ -15075,7 +14989,7 @@
         <v>303380.9590580071</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>90.2</v>
@@ -15114,7 +15028,7 @@
         <v>302492.5290580071</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>90.3</v>
@@ -15153,7 +15067,7 @@
         <v>302502.5290580071</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>90.2</v>
@@ -15192,7 +15106,7 @@
         <v>302102.5290580071</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>90.7</v>
@@ -15231,7 +15145,7 @@
         <v>302102.5290580071</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>90.2</v>
@@ -15270,7 +15184,7 @@
         <v>302102.5290580071</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>90.2</v>
@@ -15309,7 +15223,7 @@
         <v>302112.5290580071</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>90.2</v>
@@ -15348,7 +15262,7 @@
         <v>298790.2699580071</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>91.3</v>
@@ -15387,7 +15301,7 @@
         <v>298890.2699580071</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>90.3</v>
@@ -15426,7 +15340,7 @@
         <v>298910.2699580071</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>90.59999999999999</v>
@@ -15465,7 +15379,7 @@
         <v>304442.2699580071</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>90.90000000000001</v>
@@ -15504,7 +15418,7 @@
         <v>302822.3896580071</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>92</v>
@@ -15543,7 +15457,7 @@
         <v>302822.3896580071</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>91.7</v>
@@ -15582,7 +15496,7 @@
         <v>307887.6485580071</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>91.7</v>
@@ -15621,7 +15535,7 @@
         <v>311547.1056580071</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>92</v>
@@ -15660,9 +15574,11 @@
         <v>309107.6484580071</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>92.59999999999999</v>
+      </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -15697,9 +15613,11 @@
         <v>311160.1843580071</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>90.8</v>
+      </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15734,9 +15652,11 @@
         <v>311160.1843580071</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>92.59999999999999</v>
+      </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -15771,9 +15691,11 @@
         <v>311160.1843580071</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>92.59999999999999</v>
+      </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -15808,9 +15730,11 @@
         <v>312272.1584580071</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>92.59999999999999</v>
+      </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15845,9 +15769,11 @@
         <v>309578.0008580071</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>92.7</v>
+      </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -15882,9 +15808,11 @@
         <v>309578.0008580071</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>92.59999999999999</v>
+      </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15919,9 +15847,11 @@
         <v>308892.3278580071</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>92.59999999999999</v>
+      </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15956,9 +15886,11 @@
         <v>308496.3278580071</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>91</v>
+      </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15993,7 +15925,7 @@
         <v>308506.3278580071</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>90.90000000000001</v>
@@ -16032,7 +15964,7 @@
         <v>308863.0108580071</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>92</v>
@@ -16071,7 +16003,7 @@
         <v>309263.0108580071</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>92.59999999999999</v>
@@ -16110,7 +16042,7 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>92.7</v>
@@ -16149,7 +16081,7 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>93</v>
@@ -16188,7 +16120,7 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>93</v>
@@ -16227,7 +16159,7 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>93</v>
@@ -16266,7 +16198,7 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>93</v>
@@ -16305,7 +16237,7 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>92.90000000000001</v>
@@ -16344,7 +16276,7 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>92.90000000000001</v>
@@ -16383,7 +16315,7 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>92.90000000000001</v>
@@ -16422,7 +16354,7 @@
         <v>312457.2016580071</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>92.90000000000001</v>
@@ -16461,7 +16393,7 @@
         <v>312457.2016580071</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>92.8</v>
@@ -16500,7 +16432,7 @@
         <v>306754.2016580071</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>92.8</v>
@@ -16539,7 +16471,7 @@
         <v>306754.2016580071</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I462" t="n">
         <v>92.7</v>
@@ -16578,7 +16510,7 @@
         <v>306754.2016580071</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463" t="n">
         <v>92.7</v>
@@ -16617,7 +16549,7 @@
         <v>304754.2016580071</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
         <v>92.7</v>
@@ -16656,9 +16588,11 @@
         <v>306354.2016580071</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>92.59999999999999</v>
+      </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -16693,9 +16627,11 @@
         <v>305642.1078580071</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>92.8</v>
+      </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16730,7 +16666,7 @@
         <v>295445.8894580071</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>91.90000000000001</v>
@@ -16769,7 +16705,7 @@
         <v>295505.7394580071</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I468" t="n">
         <v>91.8</v>
@@ -16808,7 +16744,7 @@
         <v>295505.7394580071</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I469" t="n">
         <v>91.90000000000001</v>
@@ -16847,7 +16783,7 @@
         <v>279350.9927580071</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I470" t="n">
         <v>91.90000000000001</v>
@@ -16886,7 +16822,7 @@
         <v>279350.9927580071</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I471" t="n">
         <v>91.7</v>
@@ -16925,7 +16861,7 @@
         <v>278895.5455580071</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I472" t="n">
         <v>91.7</v>
@@ -16964,7 +16900,7 @@
         <v>269562.0095580071</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I473" t="n">
         <v>91.59999999999999</v>
@@ -17003,7 +16939,7 @@
         <v>286033.0954580071</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I474" t="n">
         <v>90.7</v>
@@ -17042,7 +16978,7 @@
         <v>293666.683158007</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>91.59999999999999</v>
@@ -17081,7 +17017,7 @@
         <v>293666.683158007</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I476" t="n">
         <v>91.7</v>
@@ -17120,7 +17056,7 @@
         <v>293666.683158007</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I477" t="n">
         <v>91.7</v>
@@ -17159,7 +17095,7 @@
         <v>245661.5805580071</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I478" t="n">
         <v>91.7</v>
@@ -17198,7 +17134,7 @@
         <v>245867.1322580071</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I479" t="n">
         <v>90.5</v>
@@ -17237,7 +17173,7 @@
         <v>245867.1322580071</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I480" t="n">
         <v>90.59999999999999</v>
@@ -17276,7 +17212,7 @@
         <v>248549.7373580071</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I481" t="n">
         <v>90.59999999999999</v>
@@ -17315,7 +17251,7 @@
         <v>251749.7373580071</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>90.7</v>
@@ -17354,7 +17290,7 @@
         <v>244019.8446580071</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>92.09999999999999</v>
@@ -17393,7 +17329,7 @@
         <v>244035.8746580071</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484" t="n">
         <v>90.8</v>
@@ -17432,7 +17368,7 @@
         <v>244035.8746580071</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485" t="n">
         <v>90.90000000000001</v>
@@ -17471,7 +17407,7 @@
         <v>250760.2484580071</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I486" t="n">
         <v>90.90000000000001</v>
@@ -17510,7 +17446,7 @@
         <v>249160.2484580071</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I487" t="n">
         <v>91</v>
@@ -17527,6 +17463,6 @@
       <c r="M487" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest PAY.xlsx
+++ b/BackTest/2019-10-29 BackTest PAY.xlsx
@@ -550,7 +550,7 @@
         <v>1012980.179714002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>971729.672414002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>953424.729514002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>1126675.216422335</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1126675.216422335</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>1126675.216422335</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>920047.2653223353</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>871254.7331223354</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>871254.7331223354</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>855725.9150223354</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>857349.0228654726</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>857282.0228654726</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>826379.9474654726</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>832255.6112654726</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -13948,14 +13948,10 @@
         <v>333847.0018580071</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="J411" t="n">
-        <v>89.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
@@ -13988,14 +13984,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14024,19 +14014,11 @@
         <v>335023.4640580071</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="J413" t="n">
-        <v>89.5</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14263,10 +14245,14 @@
         <v>305290.9796580071</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J420" t="n">
+        <v>90.2</v>
+      </c>
       <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
@@ -14299,8 +14285,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14332,8 +14324,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14395,10 +14393,14 @@
         <v>303380.9590580071</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J424" t="n">
+        <v>90.2</v>
+      </c>
       <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
@@ -14431,8 +14433,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14461,11 +14469,19 @@
         <v>302502.5290580071</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J426" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14494,11 +14510,19 @@
         <v>302102.5290580071</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="J427" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14527,11 +14551,19 @@
         <v>302102.5290580071</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J428" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14560,11 +14592,19 @@
         <v>302102.5290580071</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J429" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14593,11 +14633,19 @@
         <v>302112.5290580071</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="J430" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14626,11 +14674,19 @@
         <v>298790.2699580071</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="J431" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14659,11 +14715,19 @@
         <v>298890.2699580071</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="J432" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14692,11 +14756,19 @@
         <v>298910.2699580071</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="J433" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14725,11 +14797,19 @@
         <v>304442.2699580071</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="J434" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14758,11 +14838,19 @@
         <v>302822.3896580071</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>92</v>
+      </c>
+      <c r="J435" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14791,11 +14879,19 @@
         <v>302822.3896580071</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="J436" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14824,11 +14920,19 @@
         <v>307887.6485580071</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>91.7</v>
+      </c>
+      <c r="J437" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14857,11 +14961,19 @@
         <v>311547.1056580071</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>92</v>
+      </c>
+      <c r="J438" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14890,11 +15002,19 @@
         <v>309107.6484580071</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="J439" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14923,11 +15043,19 @@
         <v>311160.1843580071</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="J440" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14956,11 +15084,19 @@
         <v>311160.1843580071</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="J441" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14989,11 +15125,19 @@
         <v>311160.1843580071</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="J442" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15022,11 +15166,19 @@
         <v>312272.1584580071</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="J443" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15055,11 +15207,19 @@
         <v>309578.0008580071</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="J444" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15088,11 +15248,19 @@
         <v>309578.0008580071</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="J445" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15121,11 +15289,19 @@
         <v>308892.3278580071</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="J446" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15154,11 +15330,19 @@
         <v>308496.3278580071</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>91</v>
+      </c>
+      <c r="J447" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15187,11 +15371,19 @@
         <v>308506.3278580071</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="J448" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15220,11 +15412,19 @@
         <v>308863.0108580071</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>92</v>
+      </c>
+      <c r="J449" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15253,11 +15453,19 @@
         <v>309263.0108580071</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="J450" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15286,11 +15494,19 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="J451" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15319,11 +15535,19 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>93</v>
+      </c>
+      <c r="J452" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15352,11 +15576,19 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>93</v>
+      </c>
+      <c r="J453" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15385,11 +15617,19 @@
         <v>313890.0108580071</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>93</v>
+      </c>
+      <c r="J454" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15418,11 +15658,19 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>93</v>
+      </c>
+      <c r="J455" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15451,11 +15699,19 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="J456" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15484,11 +15740,19 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="J457" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15517,11 +15781,19 @@
         <v>313090.0108580071</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="J458" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15550,11 +15822,19 @@
         <v>312457.2016580071</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="J459" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15583,11 +15863,19 @@
         <v>312457.2016580071</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="J460" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15616,11 +15904,19 @@
         <v>306754.2016580071</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="J461" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15649,11 +15945,19 @@
         <v>306754.2016580071</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="J462" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15682,11 +15986,19 @@
         <v>306754.2016580071</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="J463" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15715,11 +16027,19 @@
         <v>304754.2016580071</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="J464" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15748,11 +16068,19 @@
         <v>306354.2016580071</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="J465" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15781,11 +16109,19 @@
         <v>305642.1078580071</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="J466" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15814,11 +16150,19 @@
         <v>295445.8894580071</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="J467" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15847,11 +16191,19 @@
         <v>295505.7394580071</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="J468" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15880,11 +16232,19 @@
         <v>295505.7394580071</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="J469" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15913,11 +16273,19 @@
         <v>279350.9927580071</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="J470" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15952,9 +16320,13 @@
         <v>91.7</v>
       </c>
       <c r="J471" t="n">
-        <v>91.7</v>
-      </c>
-      <c r="K471" t="inlineStr"/>
+        <v>90.2</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15989,11 +16361,11 @@
         <v>91.7</v>
       </c>
       <c r="J472" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L472" t="n">
@@ -16030,11 +16402,11 @@
         <v>91.59999999999999</v>
       </c>
       <c r="J473" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L473" t="n">
@@ -16071,7 +16443,7 @@
         <v>90.7</v>
       </c>
       <c r="J474" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16112,7 +16484,7 @@
         <v>91.59999999999999</v>
       </c>
       <c r="J475" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16153,7 +16525,7 @@
         <v>91.7</v>
       </c>
       <c r="J476" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16194,7 +16566,7 @@
         <v>91.7</v>
       </c>
       <c r="J477" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16235,7 +16607,7 @@
         <v>91.7</v>
       </c>
       <c r="J478" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -16276,7 +16648,7 @@
         <v>90.5</v>
       </c>
       <c r="J479" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -16317,7 +16689,7 @@
         <v>90.59999999999999</v>
       </c>
       <c r="J480" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -16358,7 +16730,7 @@
         <v>90.59999999999999</v>
       </c>
       <c r="J481" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -16399,7 +16771,7 @@
         <v>90.7</v>
       </c>
       <c r="J482" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -16440,7 +16812,7 @@
         <v>92.09999999999999</v>
       </c>
       <c r="J483" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -16481,7 +16853,7 @@
         <v>90.8</v>
       </c>
       <c r="J484" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -16522,7 +16894,7 @@
         <v>90.90000000000001</v>
       </c>
       <c r="J485" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -16563,7 +16935,7 @@
         <v>90.90000000000001</v>
       </c>
       <c r="J486" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -16604,7 +16976,7 @@
         <v>91</v>
       </c>
       <c r="J487" t="n">
-        <v>91.7</v>
+        <v>90.2</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
